--- a/medicine/Enfance/Marie_Laubot/Marie_Laubot.xlsx
+++ b/medicine/Enfance/Marie_Laubot/Marie_Laubot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Laubot, née Marie Julie Eugénie Micquet le 10 décembre 1836 à Orléans[1], et morte le 30 avril 1916 à Paris (6e arrondissement[2]) est une femme de lettres française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Laubot, née Marie Julie Eugénie Micquet le 10 décembre 1836 à Orléans, et morte le 30 avril 1916 à Paris (6e arrondissement) est une femme de lettres française.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née hors mariage de Edme Jules Laubot, un agent général du commerce de bois de travail parisien et d'une couturière, Marie Anne Micquet, elle n'est officiellement reconnue par son père qu'en 1855[3].
-On ne sait pratiquement rien de l’autrice, sinon qu'elle écrivit des livres pour la jeunesse dans les années 1890 à 1910 et selon l'usage de l'époque, aucune date de parution n'est mentionnée dans ces ouvrages. Ce sont des livres de prix pour les écoles laïques, de beaux livres rouges, in octavo, illustrés, cartonnés, dorés, édités par la Librairie Gedalge[4] ou par la Librairie d'Éducation de la Jeunesse, 7, rue des Canettes, Paris (Société d'Édition et de Publications, Librairie Félix Juven, 122, rue Réaumur, Paris.).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née hors mariage de Edme Jules Laubot, un agent général du commerce de bois de travail parisien et d'une couturière, Marie Anne Micquet, elle n'est officiellement reconnue par son père qu'en 1855.
+On ne sait pratiquement rien de l’autrice, sinon qu'elle écrivit des livres pour la jeunesse dans les années 1890 à 1910 et selon l'usage de l'époque, aucune date de parution n'est mentionnée dans ces ouvrages. Ce sont des livres de prix pour les écoles laïques, de beaux livres rouges, in octavo, illustrés, cartonnés, dorés, édités par la Librairie Gedalge ou par la Librairie d'Éducation de la Jeunesse, 7, rue des Canettes, Paris (Société d'Édition et de Publications, Librairie Félix Juven, 122, rue Réaumur, Paris.).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les gentillets, avec souvent un côté moralisateur :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les gentillets, avec souvent un côté moralisateur :
 Le petit saltimbanque
 Mademoiselle qu'en-dira-t-on ?
 Mésaventures d'une petite fille qui n'aimait pas coudre
@@ -557,11 +573,81 @@
 Les historiques :
 Histoire d'un timbre-poste
 Sauvée des ruines, ouvrage historique sur Murat et l’Italie en 1815
-Nos Grands Républicains du XIXe siècle, panthéon républicain à l'usage des élèves méritants, publié vers 1907.
-Nos Grands Républicains
-La Grèce avait l'Odyssée, Rome : Romulus, l'Église : la vie des saints, les rois : châteaux et cathédrales, à commencer par Saint-Denis… Mais finalement qu'avait la République ? Le Panthéon ! Certes mais qui pouvait le visiter ? Les hommes au pouvoir au début du XXe siècle voulaient « enraciner » la légitimité du régime républicain par le recours au Devoir de Mémoire. Ils voulaient de plus transmettre aux jeunes générations « les combats, valeurs et vertus républicaines ». Tous attributs fondés sur des modèles de comportement incarnés par des héros valeureux. Enfin, les années passant, ils sentaient grandir "une débordante gratitude" envers les Pères fondateurs de la (IIIe) République. Pères qui commençaient déjà à rejoindre dans l'oubli, les Rois, les Saints et les antiques héros… Il fallait donc réveiller tout cela par un livre de Prix, rouge, laïc, cartonné et doré.
+Nos Grands Républicains du XIXe siècle, panthéon républicain à l'usage des élèves méritants, publié vers 1907.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie_Laubot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Laubot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nos Grands Républicains</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Grèce avait l'Odyssée, Rome : Romulus, l'Église : la vie des saints, les rois : châteaux et cathédrales, à commencer par Saint-Denis… Mais finalement qu'avait la République ? Le Panthéon ! Certes mais qui pouvait le visiter ? Les hommes au pouvoir au début du XXe siècle voulaient « enraciner » la légitimité du régime républicain par le recours au Devoir de Mémoire. Ils voulaient de plus transmettre aux jeunes générations « les combats, valeurs et vertus républicaines ». Tous attributs fondés sur des modèles de comportement incarnés par des héros valeureux. Enfin, les années passant, ils sentaient grandir "une débordante gratitude" envers les Pères fondateurs de la (IIIe) République. Pères qui commençaient déjà à rejoindre dans l'oubli, les Rois, les Saints et les antiques héros… Il fallait donc réveiller tout cela par un livre de Prix, rouge, laïc, cartonné et doré.
 Marie Laubot, pédagogue repérée sinon attitrée, fut chargée de l'affaire. Certes, elle n'est pas reconnue comme une grande historienne, à l'égard d'un Michelet ou d'un Quinet. Certes elle ne s'attarde pas dans les débats parlementaires et autres procédures judiciaires. Elle ce qui l'intéresse ce sont les hommes. Et son Histoire, à elle, est en effet toute humaine (romantique, émouvante, "sensitive"). Ayant engrangé les leçons d'un Lamartine ou d'un Hugo ; elle nous livres 38 portraits de grands Républicains. Les hommes, pas les femmes, car curieusement, celles-ci sont quasi absentes de ce palmarès.
-La liste de Laubot
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie_Laubot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Laubot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La liste de Laubot</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 François Arago
 Étienne Arago
 Emmanuel Arago
@@ -596,8 +682,43 @@
 Léon Gambetta
 Pierre Waldeck-Rousseau
 Sadi Carnot
-Les « dynasties » républicaines
-Au fil des pages, dans un souci de filiation républicaine, l'auteur met en avant cette curieuse notion qui tend à démontrer que la piété filiale s'accorde à merveille, avec la piété républicaine. Elle 'débusque' ainsi sept (4+3) 'dynasties'… ce sont, et à tout seigneur…
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie_Laubot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Laubot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les « dynasties » républicaines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au fil des pages, dans un souci de filiation républicaine, l'auteur met en avant cette curieuse notion qui tend à démontrer que la piété filiale s'accorde à merveille, avec la piété républicaine. Elle 'débusque' ainsi sept (4+3) 'dynasties'… ce sont, et à tout seigneur…
 Les 4 Carnot : Lazare Carnot, premier homme d'État d'une longue lignée, plusieurs fois ministre comme ses fils Hippolyte Lazare Carnot à l'Instruction Publique en 1848 et son frère cadet, Sadi Carnot et comme son petit-fils, le président de la République, François Marie Sadi-Carnot, assassiné à Lyon, en 1894, avait fondé en 1815 la 'Société pour l'Instruction Élémentaire'.
 Les 4 Raspail : Benjamin Raspail (1823-1899) et son frère Camille François Raspail (1827-1893) furent des députés de la gauche républicaine dont les discours ne figurent pas dans les annales du Parlement. Le premier, amputé d'une jambe, légua, à sa mort, sa propriété pour y fonder une maison de retraite pour invalides du travail. L'auteur y voit « la digne fin d'un vrai républicain ». Cela suffit-il à le ranger au même plan qu'un Lazare Carnot? Est cité également le fils cadet, Xavier Raspail, un médecin qui s'illustra pendant le siège et qui fait bien pale figure à côté de ses aïeux.
 Les 3 Arago : François Arago, Emmanuel Arago, sans oublier, Étienne Arago, l'homme de théâtre républicain, qui a bien décrit la dernière génération du siècle dans son ouvrage « L'Hôtel de ville au 4 septembre 1870 »
@@ -623,8 +744,43 @@
 René Waldeck-Rousseau
 Pierre Waldeck-Rousseau
 Ces quatre lignées renommées, seront donc suivies de trois autres, non moins illustres mais « seulement représentées » par 2 grands hommes au lieu de 3 ou 4… ce sont: les Blanqui, les Garnier-Pagès et autres Waldeck-Rousseau.
-Une chronologie républicaine
-Au fil des biographies successives - qui s'attardent sur des moments privilégiés de la vie de chaque individu : naissance(s), études, combats de rues, procès, belles phrases et petits mots, manifestations populaires, emprisonnements, mariages, drames familiaux et pour finir, funérailles - se dessine en filigrane l'esquisse d'une chronologie…
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie_Laubot</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Laubot</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Une chronologie républicaine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au fil des biographies successives - qui s'attardent sur des moments privilégiés de la vie de chaque individu : naissance(s), études, combats de rues, procès, belles phrases et petits mots, manifestations populaires, emprisonnements, mariages, drames familiaux et pour finir, funérailles - se dessine en filigrane l'esquisse d'une chronologie…
 L'auteur reproduit des pièces authentiques, extraits de discours ou de correspondances, illustrant des faits qui, à ses yeux, méritent réflexion. Au fil des pages et des portraits, en les replaçant dans une chronologie collective, on peut dresser un tableau de la mémoire « des dires et des faits » républicains. Devoir de Mémoire : ces dires et faits, souvent mineurs au regard de la « grande histoire », un auteur républicain se doit de les transmettre à la 'jeune classe', en ce tout début du XXe siècle.
 Cela permet d'entrevoir les différentes facettes du combat républicain privilégiées par Marie Laubot: la vie personnelle, quotidienne (la vraie vie) de chacun de ses héros. Ce faisant, elle néglige quelque peu les luttes théoriques et les déchirements internes du monde républicain (et, il est vrai, qu'il n'est pas facile de faire coexister, dans les mêmes pages, un Thiers et un Proudhon…). Mais cette chronologie subjective a l'immense mérite de mettre en lumière certaines facettes de l'Histoire que l'historiographie classique négligeait volontiers.
 1823, malheureuse expédition des républicains français, aux côtés des libéraux espagnols; au sein de la légion étrangère franco-italienne. Marie écrira : « Décidément, l'Espagne réussit bien mal aux troupes françaises ». Elle ne croyait pas si bien dire.
@@ -663,8 +819,43 @@
 juillet 1898. Fête pour le centenaire de la naissance de Michelet sur la place de l'Hôtel-de-Ville de Paris.
 8 décembre 1901. Nouveau monument à Alphonse Baudin au faubourg Saint-Antoine.
 Cette reconstitution chronologique permet d'approcher la mémoire républicaine au début du XXe siècle. Elle complète la chronologie traditionnelle des événements politiques majeurs et permet de tisser des liens entre eux. Lorsque le courant républicain était marginal et minoritaire, des élans ponctuels de l'opinion publique contribuèrent à la transmission des idéaux et à faire émerger de nouvelles générations de militants. En ces occasions - procès, illuminations, manifestations, enterrements - on peut cerner les contours d'un « parti » républicain.
-Les salons des oublié(e)s
-Le salon des oubliés
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marie_Laubot</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Laubot</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Son œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les salons des oublié(e)s</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le salon des oubliés
 Attention, ils forment légion :
 des figures de proue des débuts de la Troisième République (souvent qualifiée de « République des Jules »), Jules Favre (1809-1880) et Jules Grévy (1807-1891), sans doute à cause des 'scandales' (décorations, Panama), encore trop présents dans les mémoires ? Car Marie Laubot exalte la « pureté » républicaine, immense Vertu qui exige sacrifices et renoncements. (exit Panama et Légion d'honneur). C'est, après quelques contorsions et accommodations, un parti républicain lisse qu'elle propose aux élèves méritants.
 les dirigeants ouvriers, députés ou même hommes de gouvernement, comme
